--- a/DeLorean-Lander/Documentation/Scrum Backlog_Flora_Simon.xlsx
+++ b/DeLorean-Lander/Documentation/Scrum Backlog_Flora_Simon.xlsx
@@ -567,10 +567,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1625,7 +1625,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1745,7 +1745,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1814,7 +1814,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1860,7 +1860,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1929,7 +1929,7 @@
         <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2041,7 +2041,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D15)</f>
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D15)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
